--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3849.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3849.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9658792456076446</v>
+        <v>2.579703092575073</v>
       </c>
       <c r="B1">
-        <v>1.371594689398751</v>
+        <v>4.765843391418457</v>
       </c>
       <c r="C1">
-        <v>2.578719621628247</v>
+        <v>6.641824722290039</v>
       </c>
       <c r="D1">
-        <v>4.557035374878196</v>
+        <v>6.506769180297852</v>
       </c>
       <c r="E1">
-        <v>2.843394994346099</v>
+        <v>5.467338085174561</v>
       </c>
     </row>
   </sheetData>
